--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga2b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H2">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I2">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J2">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N2">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O2">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P2">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q2">
-        <v>28.7267247072495</v>
+        <v>55.62040086610801</v>
       </c>
       <c r="R2">
-        <v>28.7267247072495</v>
+        <v>500.583607794972</v>
       </c>
       <c r="S2">
-        <v>0.1397563421615662</v>
+        <v>0.1997716407137878</v>
       </c>
       <c r="T2">
-        <v>0.1397563421615662</v>
+        <v>0.2075664874319897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H3">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I3">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J3">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N3">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P3">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q3">
-        <v>89.19804959900928</v>
+        <v>111.631460644184</v>
       </c>
       <c r="R3">
-        <v>89.19804959900928</v>
+        <v>1004.683145797656</v>
       </c>
       <c r="S3">
-        <v>0.433951077505107</v>
+        <v>0.4009464099665297</v>
       </c>
       <c r="T3">
-        <v>0.433951077505107</v>
+        <v>0.4165908517738637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H4">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I4">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J4">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N4">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O4">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P4">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q4">
-        <v>8.268827461557887</v>
+        <v>11.485065148414</v>
       </c>
       <c r="R4">
-        <v>8.268827461557887</v>
+        <v>103.365586335726</v>
       </c>
       <c r="S4">
-        <v>0.04022808349260944</v>
+        <v>0.04125087688466268</v>
       </c>
       <c r="T4">
-        <v>0.04022808349260944</v>
+        <v>0.04286043598503591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H5">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I5">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J5">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N5">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O5">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P5">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q5">
-        <v>32.78574371473592</v>
+        <v>37.71872442865801</v>
       </c>
       <c r="R5">
-        <v>32.78574371473592</v>
+        <v>339.468519857922</v>
       </c>
       <c r="S5">
-        <v>0.1595035864099653</v>
+        <v>0.1354742387219242</v>
       </c>
       <c r="T5">
-        <v>0.1595035864099653</v>
+        <v>0.1407602789292799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H6">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I6">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J6">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N6">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O6">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P6">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q6">
-        <v>20.4533503106778</v>
+        <v>24.375021220134</v>
       </c>
       <c r="R6">
-        <v>20.4533503106778</v>
+        <v>146.250127320804</v>
       </c>
       <c r="S6">
-        <v>0.09950613769930043</v>
+        <v>0.08754769663205948</v>
       </c>
       <c r="T6">
-        <v>0.09950613769930043</v>
+        <v>0.06064246759533117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H7">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I7">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J7">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N7">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O7">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P7">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q7">
-        <v>2.156614287116832</v>
+        <v>0.250000666154</v>
       </c>
       <c r="R7">
-        <v>2.156614287116832</v>
+        <v>2.250005995386</v>
       </c>
       <c r="S7">
-        <v>0.01049199055208548</v>
+        <v>0.0008979267045800277</v>
       </c>
       <c r="T7">
-        <v>0.01049199055208548</v>
+        <v>0.0009329627137021099</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H8">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I8">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J8">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N8">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P8">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q8">
-        <v>6.696405180491518</v>
+        <v>0.5017572525586667</v>
       </c>
       <c r="R8">
-        <v>6.696405180491518</v>
+        <v>4.515815273028</v>
       </c>
       <c r="S8">
-        <v>0.03257820385701966</v>
+        <v>0.001802160143091777</v>
       </c>
       <c r="T8">
-        <v>0.03257820385701966</v>
+        <v>0.00187247824243191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H9">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I9">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J9">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N9">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O9">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P9">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q9">
-        <v>0.6207693923700073</v>
+        <v>0.05162267609033333</v>
       </c>
       <c r="R9">
-        <v>0.6207693923700073</v>
+        <v>0.464604084813</v>
       </c>
       <c r="S9">
-        <v>0.003020060953262673</v>
+        <v>0.0001854130236390714</v>
       </c>
       <c r="T9">
-        <v>0.003020060953262673</v>
+        <v>0.0001926476145632935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H10">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I10">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J10">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N10">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O10">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P10">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q10">
-        <v>2.461338841427575</v>
+        <v>0.169536826179</v>
       </c>
       <c r="R10">
-        <v>2.461338841427575</v>
+        <v>1.525831435611</v>
       </c>
       <c r="S10">
-        <v>0.01197448427565765</v>
+        <v>0.000608924951992296</v>
       </c>
       <c r="T10">
-        <v>0.01197448427565765</v>
+        <v>0.0006326844638364657</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H11">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I11">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J11">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N11">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O11">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P11">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q11">
-        <v>1.535503540655354</v>
+        <v>0.109560007617</v>
       </c>
       <c r="R11">
-        <v>1.535503540655354</v>
+        <v>0.657360045702</v>
       </c>
       <c r="S11">
-        <v>0.007470268901347128</v>
+        <v>0.0003935063778297917</v>
       </c>
       <c r="T11">
-        <v>0.007470268901347128</v>
+        <v>0.0002725736790813606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H12">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I12">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J12">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N12">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O12">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P12">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q12">
-        <v>1.586063528058351</v>
+        <v>4.658314900100667</v>
       </c>
       <c r="R12">
-        <v>1.586063528058351</v>
+        <v>41.924834100906</v>
       </c>
       <c r="S12">
-        <v>0.007716244694661097</v>
+        <v>0.01673125680619915</v>
       </c>
       <c r="T12">
-        <v>0.007716244694661097</v>
+        <v>0.01738409011998288</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H13">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I13">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J13">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N13">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P13">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q13">
-        <v>4.924813903592218</v>
+        <v>9.349348230887557</v>
       </c>
       <c r="R13">
-        <v>4.924813903592218</v>
+        <v>84.14413407798801</v>
       </c>
       <c r="S13">
-        <v>0.02395936132665968</v>
+        <v>0.03358002830984719</v>
       </c>
       <c r="T13">
-        <v>0.02395936132665968</v>
+        <v>0.03489028021814058</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H14">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I14">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J14">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N14">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O14">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P14">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q14">
-        <v>0.4565395390611515</v>
+        <v>0.9618961617747778</v>
       </c>
       <c r="R14">
-        <v>0.4565395390611515</v>
+        <v>8.657065455972999</v>
       </c>
       <c r="S14">
-        <v>0.002221077992062643</v>
+        <v>0.003454839796941014</v>
       </c>
       <c r="T14">
-        <v>0.002221077992062643</v>
+        <v>0.003589643448534794</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H15">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I15">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J15">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N15">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O15">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P15">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q15">
-        <v>1.810170594668877</v>
+        <v>3.159015276459</v>
       </c>
       <c r="R15">
-        <v>1.810170594668877</v>
+        <v>28.431137488131</v>
       </c>
       <c r="S15">
-        <v>0.008806532021226441</v>
+        <v>0.01134622647429858</v>
       </c>
       <c r="T15">
-        <v>0.008806532021226441</v>
+        <v>0.01178894244680177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.75248327162173</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H16">
-        <v>1.75248327162173</v>
+        <v>9.106441</v>
       </c>
       <c r="I16">
-        <v>0.04819716139145676</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J16">
-        <v>0.04819716139145676</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.644384435125492</v>
+        <v>0.672531</v>
       </c>
       <c r="N16">
-        <v>0.644384435125492</v>
+        <v>1.345062</v>
       </c>
       <c r="O16">
-        <v>0.1139889818868199</v>
+        <v>0.1012122790946305</v>
       </c>
       <c r="P16">
-        <v>0.1139889818868199</v>
+        <v>0.06983076295287964</v>
       </c>
       <c r="Q16">
-        <v>1.129272943050843</v>
+        <v>2.041454624057</v>
       </c>
       <c r="R16">
-        <v>1.129272943050843</v>
+        <v>12.248727744342</v>
       </c>
       <c r="S16">
-        <v>0.005493945356846899</v>
+        <v>0.007332286954787511</v>
       </c>
       <c r="T16">
-        <v>0.005493945356846899</v>
+        <v>0.005078922589181443</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.484419369699437</v>
+        <v>1.962152666666667</v>
       </c>
       <c r="H17">
-        <v>0.484419369699437</v>
+        <v>5.886458</v>
       </c>
       <c r="I17">
-        <v>0.01332260280062238</v>
+        <v>0.04682864808829321</v>
       </c>
       <c r="J17">
-        <v>0.01332260280062238</v>
+        <v>0.04701432205518803</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.905037756275199</v>
+        <v>1.534622</v>
       </c>
       <c r="N17">
-        <v>0.905037756275199</v>
+        <v>4.603866</v>
       </c>
       <c r="O17">
-        <v>0.1600974927131051</v>
+        <v>0.2309523132298141</v>
       </c>
       <c r="P17">
-        <v>0.1600974927131051</v>
+        <v>0.2390161013490993</v>
       </c>
       <c r="Q17">
-        <v>0.4384178194490246</v>
+        <v>3.011162649625333</v>
       </c>
       <c r="R17">
-        <v>0.4384178194490246</v>
+        <v>27.100463846628</v>
       </c>
       <c r="S17">
-        <v>0.002132915304792234</v>
+        <v>0.01081518460141623</v>
       </c>
       <c r="T17">
-        <v>0.002132915304792234</v>
+        <v>0.01123717996520202</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.484419369699437</v>
+        <v>1.962152666666667</v>
       </c>
       <c r="H18">
-        <v>0.484419369699437</v>
+        <v>5.886458</v>
       </c>
       <c r="I18">
-        <v>0.01332260280062238</v>
+        <v>0.04682864808829321</v>
       </c>
       <c r="J18">
-        <v>0.01332260280062238</v>
+        <v>0.04701432205518803</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.81019167677124</v>
+        <v>3.080022666666667</v>
       </c>
       <c r="N18">
-        <v>2.81019167677124</v>
+        <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4971114612344499</v>
+        <v>0.4635267575122261</v>
       </c>
       <c r="P18">
-        <v>0.4971114612344499</v>
+        <v>0.4797109710753027</v>
       </c>
       <c r="Q18">
-        <v>1.361311280796128</v>
+        <v>6.043474688793778</v>
       </c>
       <c r="R18">
-        <v>1.361311280796128</v>
+        <v>54.39127219914401</v>
       </c>
       <c r="S18">
-        <v>0.006622818545663563</v>
+        <v>0.02170633140704765</v>
       </c>
       <c r="T18">
-        <v>0.006622818545663563</v>
+        <v>0.02255328608754127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.484419369699437</v>
+        <v>1.962152666666667</v>
       </c>
       <c r="H19">
-        <v>0.484419369699437</v>
+        <v>5.886458</v>
       </c>
       <c r="I19">
-        <v>0.01332260280062238</v>
+        <v>0.04682864808829321</v>
       </c>
       <c r="J19">
-        <v>0.01332260280062238</v>
+        <v>0.04701432205518803</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.260510069598938</v>
+        <v>0.3168843333333333</v>
       </c>
       <c r="N19">
-        <v>0.260510069598938</v>
+        <v>0.950653</v>
       </c>
       <c r="O19">
-        <v>0.04608317021044195</v>
+        <v>0.04768937875882193</v>
       </c>
       <c r="P19">
-        <v>0.04608317021044195</v>
+        <v>0.04935447161056063</v>
       </c>
       <c r="Q19">
-        <v>0.126196123715474</v>
+        <v>0.6217754396748889</v>
       </c>
       <c r="R19">
-        <v>0.126196123715474</v>
+        <v>5.595978957074</v>
       </c>
       <c r="S19">
-        <v>0.0006139477725071915</v>
+        <v>0.002233229135446197</v>
       </c>
       <c r="T19">
-        <v>0.0006139477725071915</v>
+        <v>0.002320367023162532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.484419369699437</v>
+        <v>1.962152666666667</v>
       </c>
       <c r="H20">
-        <v>0.484419369699437</v>
+        <v>5.886458</v>
       </c>
       <c r="I20">
-        <v>0.01332260280062238</v>
+        <v>0.04682864808829321</v>
       </c>
       <c r="J20">
-        <v>0.01332260280062238</v>
+        <v>0.04701432205518803</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03291747429564</v>
+        <v>1.040697</v>
       </c>
       <c r="N20">
-        <v>1.03291747429564</v>
+        <v>3.122091</v>
       </c>
       <c r="O20">
-        <v>0.1827188939551833</v>
+        <v>0.1566192714045073</v>
       </c>
       <c r="P20">
-        <v>0.1827188939551833</v>
+        <v>0.1620876930121578</v>
       </c>
       <c r="Q20">
-        <v>0.5003652318498283</v>
+        <v>2.042006393742</v>
       </c>
       <c r="R20">
-        <v>0.5003652318498283</v>
+        <v>18.378057543678</v>
       </c>
       <c r="S20">
-        <v>0.002434291248333947</v>
+        <v>0.007334268744446559</v>
       </c>
       <c r="T20">
-        <v>0.002434291248333947</v>
+        <v>0.007620443000456036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H21">
+        <v>5.886458</v>
+      </c>
+      <c r="I21">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J21">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.672531</v>
+      </c>
+      <c r="N21">
+        <v>1.345062</v>
+      </c>
+      <c r="O21">
+        <v>0.1012122790946305</v>
+      </c>
+      <c r="P21">
+        <v>0.06983076295287964</v>
+      </c>
+      <c r="Q21">
+        <v>1.319608495066</v>
+      </c>
+      <c r="R21">
+        <v>7.917650970396</v>
+      </c>
+      <c r="S21">
+        <v>0.004739634199936569</v>
+      </c>
+      <c r="T21">
+        <v>0.003283045978826176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.496436</v>
+      </c>
+      <c r="H22">
+        <v>0.992872</v>
+      </c>
+      <c r="I22">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J22">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.534622</v>
+      </c>
+      <c r="N22">
+        <v>4.603866</v>
+      </c>
+      <c r="O22">
+        <v>0.2309523132298141</v>
+      </c>
+      <c r="P22">
+        <v>0.2390161013490993</v>
+      </c>
+      <c r="Q22">
+        <v>0.761841607192</v>
+      </c>
+      <c r="R22">
+        <v>4.571049643152</v>
+      </c>
+      <c r="S22">
+        <v>0.002736304403830962</v>
+      </c>
+      <c r="T22">
+        <v>0.001895381118222547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.496436</v>
+      </c>
+      <c r="H23">
+        <v>0.992872</v>
+      </c>
+      <c r="I23">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J23">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.080022666666667</v>
+      </c>
+      <c r="N23">
+        <v>9.240068000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.4635267575122261</v>
+      </c>
+      <c r="P23">
+        <v>0.4797109710753027</v>
+      </c>
+      <c r="Q23">
+        <v>1.529034132549333</v>
+      </c>
+      <c r="R23">
+        <v>9.174204795296001</v>
+      </c>
+      <c r="S23">
+        <v>0.005491827685709696</v>
+      </c>
+      <c r="T23">
+        <v>0.003804074753325221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.496436</v>
+      </c>
+      <c r="H24">
+        <v>0.992872</v>
+      </c>
+      <c r="I24">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J24">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.3168843333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.950653</v>
+      </c>
+      <c r="O24">
+        <v>0.04768937875882193</v>
+      </c>
+      <c r="P24">
+        <v>0.04935447161056063</v>
+      </c>
+      <c r="Q24">
+        <v>0.1573127909026667</v>
+      </c>
+      <c r="R24">
+        <v>0.943876745416</v>
+      </c>
+      <c r="S24">
+        <v>0.0005650199181329596</v>
+      </c>
+      <c r="T24">
+        <v>0.0003913775392640921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.484419369699437</v>
-      </c>
-      <c r="H21">
-        <v>0.484419369699437</v>
-      </c>
-      <c r="I21">
-        <v>0.01332260280062238</v>
-      </c>
-      <c r="J21">
-        <v>0.01332260280062238</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.644384435125492</v>
-      </c>
-      <c r="N21">
-        <v>0.644384435125492</v>
-      </c>
-      <c r="O21">
-        <v>0.1139889818868199</v>
-      </c>
-      <c r="P21">
-        <v>0.1139889818868199</v>
-      </c>
-      <c r="Q21">
-        <v>0.3121523019076186</v>
-      </c>
-      <c r="R21">
-        <v>0.3121523019076186</v>
-      </c>
-      <c r="S21">
-        <v>0.00151862992932544</v>
-      </c>
-      <c r="T21">
-        <v>0.00151862992932544</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.496436</v>
+      </c>
+      <c r="H25">
+        <v>0.992872</v>
+      </c>
+      <c r="I25">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J25">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.040697</v>
+      </c>
+      <c r="N25">
+        <v>3.122091</v>
+      </c>
+      <c r="O25">
+        <v>0.1566192714045073</v>
+      </c>
+      <c r="P25">
+        <v>0.1620876930121578</v>
+      </c>
+      <c r="Q25">
+        <v>0.516639455892</v>
+      </c>
+      <c r="R25">
+        <v>3.099836735352</v>
+      </c>
+      <c r="S25">
+        <v>0.0018556125118457</v>
+      </c>
+      <c r="T25">
+        <v>0.001285344171783573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.496436</v>
+      </c>
+      <c r="H26">
+        <v>0.992872</v>
+      </c>
+      <c r="I26">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J26">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.672531</v>
+      </c>
+      <c r="N26">
+        <v>1.345062</v>
+      </c>
+      <c r="O26">
+        <v>0.1012122790946305</v>
+      </c>
+      <c r="P26">
+        <v>0.06983076295287964</v>
+      </c>
+      <c r="Q26">
+        <v>0.333868599516</v>
+      </c>
+      <c r="R26">
+        <v>1.335474398064</v>
+      </c>
+      <c r="S26">
+        <v>0.001199154930017191</v>
+      </c>
+      <c r="T26">
+        <v>0.0005537531104594822</v>
       </c>
     </row>
   </sheetData>
